--- a/Archived/RGB_Values_for_Blue_A.xlsx
+++ b/Archived/RGB_Values_for_Blue_A.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\GitHub\PIU-Score-Tracker\Archived\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16475\Documents\GitHub\PIU-Score-Tracker\Archived\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF47507-E02A-41EE-A779-F1499A40D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B8A51-1FB9-4AE5-AF79-427C3A93E920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C8AD169A-C2E1-4AA1-8C56-70D6B205A703}"/>
+    <workbookView xWindow="4580" yWindow="1370" windowWidth="11310" windowHeight="8920" firstSheet="1" activeTab="3" xr2:uid="{C8AD169A-C2E1-4AA1-8C56-70D6B205A703}"/>
   </bookViews>
   <sheets>
     <sheet name="Blue A RGB Values" sheetId="1" r:id="rId1"/>
     <sheet name="Gray A RGB Values" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Green Doubles RGB Values" sheetId="4" r:id="rId3"/>
+    <sheet name="Red Singles RBG Values" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Blue A RGB Values</t>
   </si>
@@ -76,41 +77,36 @@
     <t>Avg of Avg G</t>
   </si>
   <si>
-    <t>Percent Fraction</t>
-  </si>
-  <si>
-    <t>R value</t>
-  </si>
-  <si>
-    <t>BreakOff</t>
-  </si>
-  <si>
-    <t>Percent Fractions of R &lt; 90 &amp; B &gt; 200</t>
-  </si>
-  <si>
-    <t>B value</t>
-  </si>
-  <si>
-    <t>(right side pass)</t>
-  </si>
-  <si>
     <t>Gray A</t>
+  </si>
+  <si>
+    <t>Doubles</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Singles</t>
+  </si>
+  <si>
+    <t>6 (other side)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,11 +158,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -176,8 +169,8 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,22 +492,22 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -533,21 +526,21 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4">
@@ -559,34 +552,34 @@
       <c r="D4">
         <v>242</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>AVERAGE(B4:B6)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>AVERAGE(C4:C6)</f>
         <v>173.33333333333334</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>AVERAGE(D4:D6)</f>
         <v>238.33333333333334</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="8">
+      <c r="I4" s="2"/>
+      <c r="J4" s="7">
         <f t="shared" ref="J4:K4" si="0">AVERAGE(F4,F7,F10)</f>
         <v>17.555555555555554</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>182.88888888888891</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f>AVERAGE(H4,H7,H10)</f>
         <v>242.2222222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>8</v>
       </c>
@@ -596,15 +589,15 @@
       <c r="D5">
         <v>238</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -614,15 +607,15 @@
       <c r="D6">
         <v>235</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7">
@@ -634,24 +627,24 @@
       <c r="D7">
         <v>234</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f>AVERAGE(B7:B9)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f>AVERAGE(C7:C9)</f>
         <v>157</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>AVERAGE(D7:D9)</f>
         <v>234.66666666666666</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>7</v>
       </c>
@@ -661,15 +654,15 @@
       <c r="D8">
         <v>239</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>9</v>
       </c>
@@ -679,15 +672,15 @@
       <c r="D9">
         <v>231</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10">
@@ -699,24 +692,24 @@
       <c r="D10">
         <v>254</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f>AVERAGE(B10:B12)</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>AVERAGE(C10:C12)</f>
         <v>218.33333333333334</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>AVERAGE(D10:D12)</f>
         <v>253.66666666666666</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
       <c r="B11">
         <v>34</v>
       </c>
@@ -727,8 +720,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
       <c r="B12">
         <v>44</v>
       </c>
@@ -756,23 +749,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150DEC60-941F-495E-A12A-06B54F363435}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -791,21 +784,21 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4">
@@ -817,33 +810,33 @@
       <c r="D4">
         <v>255</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>AVERAGE(B4:B6)</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>AVERAGE(C4:C6)</f>
         <v>174.33333333333334</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>AVERAGE(D4:D6)</f>
         <v>253.66666666666666</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f t="shared" ref="J4:K4" si="0">AVERAGE(F4,F7,F10)</f>
         <v>153.7777777777778</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>202.66666666666666</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f>AVERAGE(H4,H7,H10)</f>
         <v>246.88888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>102</v>
       </c>
@@ -853,12 +846,12 @@
       <c r="D5">
         <v>253</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>139</v>
       </c>
@@ -868,12 +861,12 @@
       <c r="D6">
         <v>253</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7">
@@ -888,21 +881,21 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f>AVERAGE(B7:B9)</f>
         <v>182.33333333333334</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f>AVERAGE(C7:C9)</f>
         <v>220</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>AVERAGE(D7:D9)</f>
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>203</v>
       </c>
@@ -912,12 +905,12 @@
       <c r="D8">
         <v>248</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>197</v>
       </c>
@@ -927,12 +920,12 @@
       <c r="D9">
         <v>251</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10">
@@ -944,21 +937,21 @@
       <c r="D10">
         <v>253</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f>AVERAGE(B10:B12)</f>
         <v>153.66666666666666</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>AVERAGE(C10:C12)</f>
         <v>213.66666666666666</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>AVERAGE(D10:D12)</f>
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
       <c r="B11">
         <v>159</v>
       </c>
@@ -969,8 +962,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
       <c r="B12">
         <v>151</v>
       </c>
@@ -992,95 +985,593 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EFF2F0-C702-45F4-9C8D-71F61060721D}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDD9159-E0AD-4BEE-A123-7E7F32F0175D}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>219</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(B4:B6)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>234</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(D4:D6)</f>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="K4" s="7">
+        <f>AVERAGE(F4,F7,F10)</f>
+        <v>14.777777777777777</v>
+      </c>
+      <c r="L4" s="9">
+        <f>AVERAGE(G4,G7,G10)</f>
+        <v>226.7777777777778</v>
+      </c>
+      <c r="M4" s="5">
+        <f>AVERAGE(H4,H7,H10)</f>
+        <v>50.333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>246</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>237</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f>MAX(B4:B12)</f>
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:M6" si="0">MAX(C4:C12)</f>
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>146</v>
+      </c>
+      <c r="F7" s="2">
+        <f>AVERAGE(B7:B9)</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(C7:C9)</f>
+        <v>211.33333333333334</v>
+      </c>
+      <c r="H7" s="3">
+        <f>AVERAGE(D7:D9)</f>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f>MEDIAN(B4:B12)</f>
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:M7" si="1">MEDIAN(C4:C12)</f>
+        <v>231</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="K8">
+        <f>MIN(B4:B12)</f>
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L8">
+        <f t="shared" ref="L8:M8" si="2">MIN(C4:C12)</f>
+        <v>196</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="F13">
+      <c r="C9">
+        <v>196</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <f>K6-K8</f>
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <f>L6-L8</f>
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <f>M6-M8</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>17</v>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2">
+        <f>AVERAGE(B10:B12)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G10" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>235</v>
+      </c>
+      <c r="H10" s="3">
+        <f>AVERAGE(D10:D12)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>241</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>214</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97550FCB-9582-46F2-B696-1BC760F5883D}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>181</v>
+      </c>
+      <c r="D4">
+        <v>187</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(B4:B6)</f>
+        <v>233.66666666666666</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>102.66666666666667</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(D4:D6)</f>
+        <v>80.666666666666671</v>
+      </c>
+      <c r="K4" s="7">
+        <f>AVERAGE(F4,F7,F10)</f>
+        <v>230</v>
+      </c>
+      <c r="L4" s="9">
+        <f>AVERAGE(G4,G7,G10)</f>
+        <v>91.777777777777786</v>
+      </c>
+      <c r="M4" s="5">
+        <f>AVERAGE(H4,H7,H10)</f>
+        <v>59.777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6">
+        <v>235</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f>MAX(B4:B12)</f>
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:M6" si="0">MAX(C4:C12)</f>
+        <v>181</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>252</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <f>AVERAGE(B7:B9)</f>
+        <v>252.66666666666666</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(C7:C9)</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H7" s="3">
+        <f>AVERAGE(D7:D9)</f>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f>MEDIAN(B4:B12)</f>
+        <v>235</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:M7" si="1">MEDIAN(C4:C12)</f>
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f>MIN(B4:B12)</f>
+        <v>196</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:M8" si="2">MIN(C4:C12)</f>
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9">
+        <v>251</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <f>K6-K8</f>
+        <v>59</v>
+      </c>
+      <c r="L9">
+        <f>L6-L8</f>
+        <v>138</v>
+      </c>
+      <c r="M9">
+        <f>M6-M8</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>196</v>
+      </c>
+      <c r="C10">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>166</v>
+      </c>
+      <c r="F10" s="2">
+        <f>AVERAGE(B10:B12)</f>
+        <v>203.66666666666666</v>
+      </c>
+      <c r="G10" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>101</v>
+      </c>
+      <c r="H10" s="3">
+        <f>AVERAGE(D10:D12)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12">
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>